--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>807859.7419499721</v>
+        <v>805382.5892808794</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>278.5122704701479</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>41.24068147581188</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406541</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>189.2049980624967</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693907</v>
       </c>
       <c r="D5" t="n">
-        <v>63.73277769123373</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>36.72227362838966</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>196.1669922308549</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.9236587943919</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.6406248247166</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.8369680284964</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953548113</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.100452100949</v>
       </c>
       <c r="D13" t="n">
-        <v>1.37058563451264</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.442315526188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754666</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>82.85562307269419</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.83266606353113</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>69.15817284271237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>22.44547853568606</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189243</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272873</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>21.35866177150589</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>105.8460632289449</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.974274198337</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323831</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>22.61263105777491</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428088</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.520734025444</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>743.5582170850328</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>743.5582170850328</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>743.5582170850328</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>332.5723122954252</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001256</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.520734025444</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>790.7764984014359</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.8118151303141</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
         <v>199.9856847044969</v>
@@ -4480,22 +4480,22 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329318</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7205539329318</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>736.6043942738443</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.8118151303141</v>
+        <v>349.6600800990971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.278283189673</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.315766249261</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189673</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1476.748842799602</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1187.331672762641</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>959.3421218646239</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245.732315283596</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1876.769798343184</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1518.504099736434</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.715847138189</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>721.7299423485817</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>306.6574921935782</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259407</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283596</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.0847133907091</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +4999,13 @@
         <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>742.0651425065845</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>808.0306171421839</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>804.8267575931455</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469183</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750371</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.751200750371</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3721.751200750371</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3368.982545480257</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.516787219177</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2605.377455243366</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
@@ -5115,31 +5115,31 @@
         <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649601</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>977.3905023848095</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>465.3198276129268</v>
+        <v>203.8650582458525</v>
       </c>
       <c r="C13" t="n">
-        <v>465.3198276129268</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="D13" t="n">
-        <v>463.9353976790766</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="E13" t="n">
-        <v>316.0223040966835</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="F13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888918</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.7128231546</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544743</v>
+        <v>834.2956531176396</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564569</v>
+        <v>606.3061022196223</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129268</v>
+        <v>385.5135230760922</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894392</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>1015.338720041567</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.434683440903</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>2184.311158441097</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.4721904516375</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>781.5360075237306</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>631.4193681113948</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861979</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2125.004443566272</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1870.319955360385</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1580.902785323425</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1352.913234425407</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.120655281877</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>580.899304487669</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>580.899304487669</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>432.986210905276</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0962634073658</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9001641222457</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286966</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058936</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246295</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063197</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718101</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.354421566069</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381622</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381622</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557692</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578589</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.886674680704</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.202186474817</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1411.785016437856</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1183.795465539839</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.0028863963088</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998257</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998257</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998257</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576782</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908933</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908934</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400699</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812163</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812163</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E43" t="n">
-        <v>344.917417812163</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.917417812163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270435</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138397</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703096</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7637,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038343</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73.66059580999814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.89687363498416</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187137</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767886</v>
       </c>
       <c r="D13" t="n">
-        <v>147.2448873836997</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729258</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729104</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.3298284757262</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4620467826928</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>98.08864825591546</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>144.8013425629418</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844822926</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.8258126177383</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>61.40075786968291</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393057</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393184</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>122.8084169651563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194301</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194217</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912042.8480749901</v>
+        <v>912042.8480749893</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>992431.8797317728</v>
+        <v>992431.8797317729</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997903.7440954426</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997903.7440954425</v>
+        <v>997903.7440954426</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997903.7440954428</v>
+        <v>997903.7440954425</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26320,31 +26320,31 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.4379713447</v>
       </c>
       <c r="F2" t="n">
         <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="H2" t="n">
-        <v>423751.9648372532</v>
-      </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372532</v>
@@ -26353,7 +26353,7 @@
         <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121054</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.139218516</v>
+        <v>143114.1392185145</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051374</v>
+        <v>166521.3471051393</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557887</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115338</v>
+        <v>37377.32855115301</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848892</v>
+        <v>43782.4065584894</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,19 +26418,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312026</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
-        <v>9848.023364462855</v>
+        <v>9848.023364462853</v>
       </c>
       <c r="F4" t="n">
         <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26442,7 +26442,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768905</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26451,7 +26451,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768954</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214701</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-914573.0372442375</v>
       </c>
       <c r="C6" t="n">
-        <v>30540.06791212974</v>
+        <v>30540.06791212945</v>
       </c>
       <c r="D6" t="n">
-        <v>233978.8095242348</v>
+        <v>233978.8095242353</v>
       </c>
       <c r="E6" t="n">
-        <v>147898.5532262189</v>
+        <v>147688.5889823755</v>
       </c>
       <c r="F6" t="n">
-        <v>144802.7927904467</v>
+        <v>144756.8877948791</v>
       </c>
       <c r="G6" t="n">
-        <v>301515.0544559979</v>
+        <v>301480.3165305625</v>
       </c>
       <c r="H6" t="n">
-        <v>312682.2906915772</v>
+        <v>312647.5527661416</v>
       </c>
       <c r="I6" t="n">
-        <v>312682.290691577</v>
+        <v>312647.5527661416</v>
       </c>
       <c r="J6" t="n">
-        <v>145077.1128815949</v>
+        <v>145042.3749561589</v>
       </c>
       <c r="K6" t="n">
-        <v>263572.1979855229</v>
+        <v>263537.4600600871</v>
       </c>
       <c r="L6" t="n">
-        <v>312682.2906915772</v>
+        <v>312647.5527661415</v>
       </c>
       <c r="M6" t="n">
-        <v>275304.9621404237</v>
+        <v>275270.2242149885</v>
       </c>
       <c r="N6" t="n">
-        <v>268899.8841330883</v>
+        <v>268865.1462076521</v>
       </c>
       <c r="O6" t="n">
-        <v>309658.9927143524</v>
+        <v>309624.2547889168</v>
       </c>
       <c r="P6" t="n">
-        <v>312682.2906915773</v>
+        <v>312647.5527661412</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086479</v>
+        <v>981.3883278086466</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,49 +26957,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757585</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012578</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.0354323028061</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>328.4904192026572</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128317</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>36.5046573265405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161687</v>
       </c>
       <c r="D5" t="n">
-        <v>290.9502639294492</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370926</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>215.4153696954384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>98.44077215646558</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.3173099230211</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.19135535722069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324409</v>
+        <v>219.8517740430797</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>273.2705663475589</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34778,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>371.3409564478483</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042263</v>
+        <v>77.71774012106134</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>139.2961589332287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
